--- a/data/trans_dic/P62A$otras-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P62A$otras-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1145643105781986</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1765935974864997</v>
+        <v>0.1765935974864998</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01975235237373107</v>
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03351159910974302</v>
+        <v>0.03594032193238432</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02709951926126832</v>
+        <v>0.02907557280732988</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1794359742342789</v>
+        <v>0.1763555760247819</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01411780406247278</v>
+        <v>0.01441074616403911</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0597689634627143</v>
+        <v>0.06152269409834394</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07285599911050138</v>
+        <v>0.07035331085067625</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1389172908392066</v>
+        <v>0.1393824373660774</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.006688552735747858</v>
+        <v>0.00672714058459867</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05174255277549086</v>
+        <v>0.05210908885926296</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05768197964239899</v>
+        <v>0.05311086761338197</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1697669657095948</v>
+        <v>0.1689933074127368</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02780669709613236</v>
+        <v>0.0290886937092226</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1066376003030554</v>
+        <v>0.1041039201677509</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1033760899795881</v>
+        <v>0.1060384989993143</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2914618169250429</v>
+        <v>0.2880348739031551</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08790403130848205</v>
+        <v>0.0845945513619832</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1560777539144704</v>
+        <v>0.1591889295247225</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1831275515255999</v>
+        <v>0.1787528401364654</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2234645047543515</v>
+        <v>0.2218051840425311</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04074599477636225</v>
+        <v>0.03965562692287235</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1094099120181953</v>
+        <v>0.1095880853107182</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1203889179326243</v>
+        <v>0.1152739542531398</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2384849412409258</v>
+        <v>0.2387700470416765</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1013943211580488</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2613426692072278</v>
+        <v>0.2613426692072277</v>
       </c>
     </row>
     <row r="8">
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05745460157075375</v>
+        <v>0.0521809019146117</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04387094426702108</v>
+        <v>0.04090095369302955</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2648968339313113</v>
+        <v>0.266177461111789</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01450525181696974</v>
+        <v>0.01321149440134721</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09992993078424757</v>
+        <v>0.09502600682066448</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09673909496816421</v>
+        <v>0.09711518638810884</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1604955592300532</v>
+        <v>0.1577294011148313</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.005857071849598255</v>
+        <v>0.006813362727181595</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08580671090210734</v>
+        <v>0.08449035613724022</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07570989761566467</v>
+        <v>0.07347678576974948</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2283125317690551</v>
+        <v>0.2265199193889138</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01823891793476209</v>
+        <v>0.02400431717794155</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1400868482021924</v>
+        <v>0.135245836356436</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1077080735726208</v>
+        <v>0.1034401424587776</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.373624707326551</v>
+        <v>0.3784445991183375</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09260350599872248</v>
+        <v>0.08672507653866536</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2071801006594595</v>
+        <v>0.201359697520318</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1964226923126359</v>
+        <v>0.1999462531548312</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2495675240357945</v>
+        <v>0.2485179019738924</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03948959442380443</v>
+        <v>0.04115341103719331</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1492222804577382</v>
+        <v>0.1505497778074103</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1312666205613772</v>
+        <v>0.1320758723281572</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2980625762170003</v>
+        <v>0.2973710464222095</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.065779180377206</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3200290933984618</v>
+        <v>0.3200290933984619</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.06489257822086937</v>
@@ -969,7 +969,7 @@
         <v>0.08028325608825305</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2842909530164869</v>
+        <v>0.284290953016487</v>
       </c>
     </row>
     <row r="11">
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02990663493877577</v>
+        <v>0.03228523387689312</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03191921032491103</v>
+        <v>0.03476838733320207</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2641478198747566</v>
+        <v>0.259121121989981</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03197867517530043</v>
+        <v>0.03073764283322361</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09087852126528403</v>
+        <v>0.08554549082669619</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05593018807825302</v>
+        <v>0.05290772819099383</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1781542898539762</v>
+        <v>0.1821433116468578</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01860551119535741</v>
+        <v>0.01882307841571804</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06853451872356769</v>
+        <v>0.0702533932642347</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05298037154623463</v>
+        <v>0.05407172270227505</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2426881465442504</v>
+        <v>0.2402319408002796</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04463409212995611</v>
+        <v>0.04276552937040047</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1187282382802671</v>
+        <v>0.1260031305954087</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1128904457501037</v>
+        <v>0.108657013011843</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3815162673514144</v>
+        <v>0.3838748968755998</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1226174775209824</v>
+        <v>0.1216309975354036</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.210549460039175</v>
+        <v>0.2064307831281775</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1655158375797976</v>
+        <v>0.1584978349328508</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2954409995223941</v>
+        <v>0.2909906015283497</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0637400503110666</v>
+        <v>0.0644330411943194</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1405735773154209</v>
+        <v>0.1467763716173663</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1165303087580449</v>
+        <v>0.1153651221145994</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3254661224518635</v>
+        <v>0.3251773918938163</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1296125939293249</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2875251306111307</v>
+        <v>0.2875251306111306</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00447078664212154</v>
+        <v>0.004469137052107277</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02909830548909718</v>
+        <v>0.02923346135523635</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04252844249015957</v>
+        <v>0.04164535625492761</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3069627211829122</v>
+        <v>0.3070999108211596</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02260505704058124</v>
+        <v>0.02274649281492048</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08911480612306075</v>
+        <v>0.08422807357540514</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1482406464103763</v>
+        <v>0.1443463611290985</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1887388929551403</v>
+        <v>0.1861448116941389</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01453521575653596</v>
+        <v>0.01570619806682473</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06697223707976782</v>
+        <v>0.06370785319443396</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1004168708210919</v>
+        <v>0.1015717059469391</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2562027526476863</v>
+        <v>0.2555045128255092</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03772423662806985</v>
+        <v>0.0365617082389665</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08911249855107858</v>
+        <v>0.08923669939786648</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1044254558673469</v>
+        <v>0.1046890008577292</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4054381291465841</v>
+        <v>0.4218775601297923</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08986254421263552</v>
+        <v>0.08879852377989063</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1823961069181842</v>
+        <v>0.1731670006869772</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2571631325121607</v>
+        <v>0.2561885181313182</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2704676541413308</v>
+        <v>0.2695059495331831</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04988807617863057</v>
+        <v>0.05124681270192267</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1223610224059746</v>
+        <v>0.1199659426496183</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1628763921432064</v>
+        <v>0.1617139163305887</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.322016924425569</v>
+        <v>0.3247945298405595</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1470565483102262</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2100634886718032</v>
+        <v>0.2100634886718031</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.02561744496754178</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.00382867849808769</v>
+        <v>0.003605743727695019</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05135175608165145</v>
+        <v>0.05134418808501572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05015537145719674</v>
+        <v>0.05128401881280647</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2826263671005508</v>
+        <v>0.2784663047855932</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0323546080070905</v>
+        <v>0.03020704318614225</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1037859800721784</v>
+        <v>0.1079687871258593</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1245413684444014</v>
+        <v>0.1221704333870897</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1893105661739476</v>
+        <v>0.1859153307906549</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01754262505745434</v>
+        <v>0.01824129120381596</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08210332864066042</v>
+        <v>0.08055102419779697</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08793467438462153</v>
+        <v>0.08756012604729652</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2426364245692431</v>
+        <v>0.24337427363028</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01766007390331516</v>
+        <v>0.01776120358006245</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08806155710320718</v>
+        <v>0.08752613757913985</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08421653487939723</v>
+        <v>0.08438279717292076</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.337140433309432</v>
+        <v>0.3387306457656716</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06674302125870396</v>
+        <v>0.06624851495019894</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1539071039322844</v>
+        <v>0.1596327032062562</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1768892627159373</v>
+        <v>0.1756601815752476</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2345141267829972</v>
+        <v>0.2319198740577479</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03505453998732307</v>
+        <v>0.03535264077504194</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1140403859354958</v>
+        <v>0.1120471750970513</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1193484425406994</v>
+        <v>0.1171908669449161</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2780085145102574</v>
+        <v>0.2798699980035659</v>
       </c>
     </row>
     <row r="19">
@@ -1603,37 +1603,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7086</v>
+        <v>7600</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5135</v>
+        <v>5510</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>35281</v>
+        <v>34676</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1788</v>
+        <v>1825</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9804</v>
+        <v>10091</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>10864</v>
+        <v>10491</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>25185</v>
+        <v>25269</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1992</v>
+        <v>2003</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>19429</v>
+        <v>19566</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>19532</v>
+        <v>17984</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>64158</v>
+        <v>63866</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4758</v>
+        <v>4977</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22550</v>
+        <v>22014</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19589</v>
+        <v>20093</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>57308</v>
+        <v>56635</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11133</v>
+        <v>10714</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25601</v>
+        <v>26111</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>27308</v>
+        <v>26656</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>40513</v>
+        <v>40212</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>12132</v>
+        <v>11808</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>41082</v>
+        <v>41149</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>40765</v>
+        <v>39033</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>90128</v>
+        <v>90235</v>
       </c>
     </row>
     <row r="8">
@@ -1783,37 +1783,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14148</v>
+        <v>12849</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11609</v>
+        <v>10823</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>58156</v>
+        <v>58437</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2225</v>
+        <v>2026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20960</v>
+        <v>19932</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>19721</v>
+        <v>19797</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>32654</v>
+        <v>32091</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2202</v>
+        <v>2561</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>39127</v>
+        <v>38527</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>35468</v>
+        <v>34422</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>96576</v>
+        <v>95818</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4059</v>
+        <v>5341</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>34495</v>
+        <v>33303</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>28501</v>
+        <v>27372</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>82026</v>
+        <v>83084</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14204</v>
+        <v>13302</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>43456</v>
+        <v>42235</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>40042</v>
+        <v>40760</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>50777</v>
+        <v>50563</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14844</v>
+        <v>15470</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>68044</v>
+        <v>68649</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>61494</v>
+        <v>61874</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>126081</v>
+        <v>125788</v>
       </c>
     </row>
     <row r="12">
@@ -1963,37 +1963,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5812</v>
+        <v>6330</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>59817</v>
+        <v>58679</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3831</v>
+        <v>3683</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>13438</v>
+        <v>12650</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7576</v>
+        <v>7167</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>28922</v>
+        <v>29570</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5101</v>
+        <v>5161</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>21699</v>
+        <v>22243</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>16823</v>
+        <v>17169</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>94357</v>
+        <v>93402</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6891</v>
+        <v>6602</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20034</v>
+        <v>21262</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20554</v>
+        <v>19783</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>86396</v>
+        <v>86930</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14690</v>
+        <v>14572</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>31135</v>
+        <v>30526</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22420</v>
+        <v>21469</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>47963</v>
+        <v>47241</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>17477</v>
+        <v>17667</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>44508</v>
+        <v>46471</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>37001</v>
+        <v>36631</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>126541</v>
+        <v>126428</v>
       </c>
     </row>
     <row r="16">
@@ -2143,37 +2143,37 @@
         <v>849</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7119</v>
+        <v>7153</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11272</v>
+        <v>11038</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>71163</v>
+        <v>71195</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3984</v>
+        <v>4009</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20001</v>
+        <v>18904</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>36855</v>
+        <v>35886</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>48459</v>
+        <v>47793</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5321</v>
+        <v>5750</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>31417</v>
+        <v>29886</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>51581</v>
+        <v>52174</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>125176</v>
+        <v>124835</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7162</v>
+        <v>6942</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21803</v>
+        <v>21834</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27678</v>
+        <v>27748</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>93993</v>
+        <v>97804</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15838</v>
+        <v>15651</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>40937</v>
+        <v>38865</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>63934</v>
+        <v>63692</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>69443</v>
+        <v>69196</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>18264</v>
+        <v>18762</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>57401</v>
+        <v>56277</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>83664</v>
+        <v>83067</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>157332</v>
+        <v>158689</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2825</v>
+        <v>2661</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>44733</v>
+        <v>44727</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>45202</v>
+        <v>46219</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>247143</v>
+        <v>243505</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>18639</v>
+        <v>17402</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>77433</v>
+        <v>80554</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>91792</v>
+        <v>90045</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>152177</v>
+        <v>149448</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>23050</v>
+        <v>23968</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>132778</v>
+        <v>130267</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>144061</v>
+        <v>143448</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>407216</v>
+        <v>408455</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13031</v>
+        <v>13106</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>76712</v>
+        <v>76245</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>75899</v>
+        <v>76049</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>294812</v>
+        <v>296203</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>38450</v>
+        <v>38165</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>114828</v>
+        <v>119100</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>130375</v>
+        <v>129469</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>188514</v>
+        <v>186428</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>46060</v>
+        <v>46452</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>184426</v>
+        <v>181203</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>195526</v>
+        <v>191991</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>466581</v>
+        <v>469705</v>
       </c>
     </row>
     <row r="24">
